--- a/Implementation/Advanced_python_mini_project.xlsx
+++ b/Implementation/Advanced_python_mini_project.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">PS_No.</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t xml:space="preserve">Score19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score20</t>
   </si>
 </sst>
 </file>
@@ -200,11 +203,11 @@
   </sheetPr>
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T12" activeCellId="0" sqref="T12:T16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.28"/>
   </cols>
@@ -267,9 +270,11 @@
       <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>99004351</v>
       </c>
@@ -326,6 +331,9 @@
       </c>
       <c r="S2" s="0" t="n">
         <v>23</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -386,6 +394,9 @@
       <c r="S3" s="0" t="n">
         <v>44</v>
       </c>
+      <c r="T3" s="0" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -445,6 +456,9 @@
       <c r="S4" s="0" t="n">
         <v>91</v>
       </c>
+      <c r="T4" s="0" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -504,6 +518,9 @@
       <c r="S5" s="0" t="n">
         <v>39</v>
       </c>
+      <c r="T5" s="0" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -563,6 +580,9 @@
       <c r="S6" s="0" t="n">
         <v>91</v>
       </c>
+      <c r="T6" s="0" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -622,6 +642,9 @@
       <c r="S7" s="0" t="n">
         <v>93</v>
       </c>
+      <c r="T7" s="0" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -681,6 +704,9 @@
       <c r="S8" s="0" t="n">
         <v>43</v>
       </c>
+      <c r="T8" s="0" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -740,6 +766,9 @@
       <c r="S9" s="0" t="n">
         <v>65</v>
       </c>
+      <c r="T9" s="0" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -799,6 +828,9 @@
       <c r="S10" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T10" s="0" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -858,6 +890,9 @@
       <c r="S11" s="0" t="n">
         <v>91</v>
       </c>
+      <c r="T11" s="0" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -917,6 +952,9 @@
       <c r="S12" s="0" t="n">
         <v>91</v>
       </c>
+      <c r="T12" s="0" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -976,6 +1014,9 @@
       <c r="S13" s="0" t="n">
         <v>75</v>
       </c>
+      <c r="T13" s="0" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
@@ -1035,6 +1076,9 @@
       <c r="S14" s="0" t="n">
         <v>65</v>
       </c>
+      <c r="T14" s="0" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -1094,6 +1138,9 @@
       <c r="S15" s="0" t="n">
         <v>43</v>
       </c>
+      <c r="T15" s="0" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -1152,6 +1199,9 @@
       </c>
       <c r="S16" s="0" t="n">
         <v>92</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1176,10 +1226,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="T12:T16 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1199,10 +1249,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="T12:T16 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1222,10 +1272,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="T12:T16 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1245,10 +1295,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="T12:T16 A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.43"/>
   </cols>

--- a/Implementation/Advanced_python_mini_project.xlsx
+++ b/Implementation/Advanced_python_mini_project.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sem" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="244">
   <si>
     <t xml:space="preserve">PS_No.</t>
   </si>
@@ -84,6 +84,678 @@
   </si>
   <si>
     <t xml:space="preserve">Score20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobby1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobby2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobby3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobby4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobby5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobby6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobby7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobby8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobby9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobby10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobby11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobby12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobby13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobby14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobby15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobby16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobby17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobby18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobby19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cricket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">football</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bowling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">riding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">racing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">games</t>
+  </si>
+  <si>
+    <t xml:space="preserve">video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kabaddi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rugby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baseball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">handball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lifting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shooting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hyderabad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mumbai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chennai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shimla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jammu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kolkata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jaipur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jaisalmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuttack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">belgaum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bhopal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chandigarh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sri nagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kochi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sambalpur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vijaywada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sikkim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pl1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pl2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pl3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pl4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pl5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pl6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pl7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pl8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pl9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pl10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pl11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pl12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pl13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pl14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pl15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pl16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pl17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pl18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pl19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selenum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hadoop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dbms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sqoop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MapR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kotlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VmWare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KS</t>
   </si>
 </sst>
 </file>
@@ -203,8 +875,8 @@
   </sheetPr>
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T12" activeCellId="0" sqref="T12:T16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1223,14 +1895,1010 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="T12:T16 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.93"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>99004351</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>99004352</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>99004353</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>99004354</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>99004355</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>99004356</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>99004357</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>99004358</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>99004359</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>99004360</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>99004361</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>99004362</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>99004363</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>99004364</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>99004365</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1246,14 +2914,1010 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="T12:T16 A1"/>
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.4"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>99004351</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>99004352</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>99004353</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>99004354</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>99004355</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>99004356</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>99004357</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>99004358</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>99004359</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>99004360</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>99004361</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>99004362</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>99004363</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>99004364</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>99004365</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1269,14 +3933,1010 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="T12:T16 A1"/>
+      <selection pane="topLeft" activeCell="S19" activeCellId="0" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.35"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>99004351</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>99004352</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>99004353</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>99004354</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>99004355</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>99004356</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>99004357</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>99004358</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>99004359</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>99004360</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>99004361</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>99004362</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>99004363</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>99004364</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>99004365</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1292,17 +4952,1008 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="T12:T16 A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T16" activeCellId="0" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.92"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>99004351</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>99004352</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>99004353</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>99004354</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>99004355</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>99004356</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>99004357</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>99004358</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>99004359</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>99004360</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>99004361</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>99004362</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>99004363</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>99004364</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>99004365</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
